--- a/Public/Upload/vip/format.xlsx
+++ b/Public/Upload/vip/format.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>法铂丽会员表</t>
   </si>
@@ -40,10 +40,10 @@
     <t>【服务店家】</t>
   </si>
   <si>
-    <t>【店家号码】</t>
-  </si>
-  <si>
-    <t>【区域经理】</t>
+    <t>【会员积分】</t>
+  </si>
+  <si>
+    <t>【消费金额】</t>
   </si>
   <si>
     <t>【购买产品】</t>
@@ -58,7 +58,7 @@
     <t>【未消费服务】</t>
   </si>
   <si>
-    <t>法铂丽</t>
+    <t>凹凸曼</t>
   </si>
   <si>
     <t>1970-1-1</t>
@@ -67,22 +67,19 @@
     <t>M78星云</t>
   </si>
   <si>
-    <t>康宝丽</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>法铂丽魔盒、面膜</t>
-  </si>
-  <si>
-    <t>4000元面部整形代金券、4000元躯体塑形代金券</t>
-  </si>
-  <si>
-    <t>4000元面部整形代金券</t>
-  </si>
-  <si>
-    <t>4000元躯体塑形代金券</t>
+    <t>店家</t>
+  </si>
+  <si>
+    <t>产品1、产品2</t>
+  </si>
+  <si>
+    <t>服务1、服务2</t>
+  </si>
+  <si>
+    <t>服务1</t>
+  </si>
+  <si>
+    <t>服务2</t>
   </si>
 </sst>
 </file>
@@ -90,12 +87,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -120,24 +117,6 @@
       <sz val="13"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -173,23 +152,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -204,22 +183,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -535,11 +505,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -565,8 +535,8 @@
   <sheetPr/>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -616,10 +586,10 @@
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -633,41 +603,41 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1000</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>10086</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="7">
-        <v>110</v>
-      </c>
-      <c r="H3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Public/Upload/vip/format.xlsx
+++ b/Public/Upload/vip/format.xlsx
@@ -70,10 +70,10 @@
     <t>店家</t>
   </si>
   <si>
-    <t>产品1、产品2</t>
-  </si>
-  <si>
-    <t>服务1、服务2</t>
+    <t>产品1,产品2</t>
+  </si>
+  <si>
+    <t>服务1,服务2</t>
   </si>
   <si>
     <t>服务1</t>
@@ -87,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -536,7 +536,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
